--- a/pred_ohlcv/54_21/2020-01-15 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 BTG ohlcv.xlsx
@@ -1276,7 +1276,7 @@
         <v>1336.97502527</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>1334.64502527</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>1376.84602527</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>1889.80338451</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>2803.09778451</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>2935.081184510001</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>2889.081184510001</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>3102.55458451</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>3476.41788451</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>4706.913584509999</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>6421.230284509998</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>6383.367513139999</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>6383.367513139999</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>6356.260113139999</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>6586.425513139999</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>5782.711613139999</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>6437.464413139999</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>5443.945512839999</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>5568.901312839998</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>5448.611212839998</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>5137.754212839998</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>2683.653512839999</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>2283.571312839999</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>2283.571312839999</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>2814.886512839999</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>3243.123712839999</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>3459.450612839999</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>3437.083512839999</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>3420.691612839999</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>3420.691612839999</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>3297.012612839999</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>3301.957612839999</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>3526.397412839999</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>3309.717412839999</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>3948.951912839999</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>4378.455223759999</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>4180.536023759999</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>3221.869006049999</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>3801.579006049999</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>3682.144606049999</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>3446.600806049998</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>3446.680006049998</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>3533.503406049998</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>3403.347606049998</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>3403.347606049998</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>3395.337606049998</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>3517.370606049998</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>3163.867906049998</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>3138.097806049998</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>3138.097806049998</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>1474.943096739997</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>2083.129196739997</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>2078.129196739997</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>1812.112696739997</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>1902.112696739997</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>1963.794944929997</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>1948.794944929997</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>2000.560644929997</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>1920.233344929997</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>1921.233344929997</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>1808.233344929997</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>1645.027844929997</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>1742.219744929997</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>1191.235544929997</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>1191.876044929997</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>1480.459744929997</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>1480.459744929997</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>1598.504541309997</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>1598.504541309997</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>2774.657341309997</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>3024.770241309997</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>3024.770241309997</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>3024.900241309997</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>3149.535141309997</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>3179.872641309998</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>3179.872641309998</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>3179.872641309998</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>3179.872641309998</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>3179.872641309998</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>3300.742241309998</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>3489.919541309997</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>3547.066541309997</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>4126.435841309997</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>4126.435841309997</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>5246.575441309997</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>5772.360641309997</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>6152.524141309997</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>7022.968541309997</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>7022.968541309997</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>7675.526241309997</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>6604.965041309997</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>6604.965041309997</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>6604.965041309997</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>6604.965041309997</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>6598.144541309997</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>6777.825641309997</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>7251.961841309997</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>9609.469649899997</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>12509.17599728</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>13724.0159499</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>13152.1127499</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>11691.74584989999</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>10513.1634499</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>10410.2409499</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>11525.3039499</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>12107.5211499</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>12013.35591596</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>11911.11141595999</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>11911.11141595999</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>12005.94934968999</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>12003.40364968999</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>12086.29434968999</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>12086.29434968999</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>13330.90684968999</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>18214.05584640999</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>18214.05584640999</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>17843.98114640999</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>17843.98114640999</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>15869.72014640999</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>15985.08024640999</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>16032.21712180999</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>16017.60762180999</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>16017.60762180999</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>16017.60762180999</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>16088.93252180999</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>15988.93252180999</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>15614.41672180999</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>15311.36312180999</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>15320.65570772999</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>15098.50210772999</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>15561.35810772999</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>16642.87107917999</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>16643.28867917999</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>16643.28867917999</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>16543.28867917999</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>16483.81897917999</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>16628.17320772999</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>16481.33620772999</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>16282.29140772999</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>15777.86680772999</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>18181.26570772999</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>18003.95690772999</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>17948.73650772999</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>17931.51441272999</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>17780.46931272999</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>17623.03561272999</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>17623.03561272999</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>17588.44701272999</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>17368.11941272999</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>17368.11941272999</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>17414.51067091999</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>17411.46417091999</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>17596.04211272999</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>17521.35941272999</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>24150.04059090998</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>23812.44279090998</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>35771.40317208997</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>35482.32657208997</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>36434.90407208997</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>36434.90407208997</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>35608.53007208997</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>34974.62637208997</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>35225.95747208997</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>34826.41057208997</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>34770.25837208997</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>35165.63046681997</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>35314.61977997997</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>35067.15847997997</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>34876.50467997997</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>34242.65867997997</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>33994.47177997997</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>34599.91987997997</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>35447.08113799997</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>35292.73623799998</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>35183.08113799997</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>35183.08113799997</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>35333.09003799997</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>34985.15503799998</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>34985.15503799998</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>35023.32593799997</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>35023.32593799997</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>35023.32593799997</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>35320.18113799997</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>35320.18113799997</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>36042.89923799997</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>36527.21803182997</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>36036.14263182997</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>36036.14263182997</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>36810.39236067997</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>38599.66826067997</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>38765.29566067997</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>38181.80663939997</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>38633.13871811997</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>38067.40811811997</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>35136.58331811996</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>35587.33825409997</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>35587.33825409997</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>35315.80945409997</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>36069.48705409997</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>35022.14435409997</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>34124.24463281997</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>34504.98639004996</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>34127.42339004996</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>32737.34869004996</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>31866.94529004996</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>29704.75610673997</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>36058.87359215997</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>43353.10880164996</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>43352.65548502997</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>43087.75548502996</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>42917.16548502997</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>41121.59378502997</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>41239.93105124997</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>41592.24365124996</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>41563.16365124996</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>41631.28705124996</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>41425.27025124996</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>41632.87805124996</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>41551.35155124996</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>41591.13845124996</v>
       </c>
       <c r="H725">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>41047.72515124996</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>41047.72515124996</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>41047.72515124996</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>41062.22605124996</v>
       </c>
       <c r="H729">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>42014.32505124996</v>
       </c>
       <c r="H730">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>41870.68095124996</v>
       </c>
       <c r="H731">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>41870.68095124996</v>
       </c>
       <c r="H732">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>41870.68095124996</v>
       </c>
       <c r="H733">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>41826.05845124996</v>
       </c>
       <c r="H734">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>41559.46085124996</v>
       </c>
       <c r="H735">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>40984.68075124997</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>40798.61835124996</v>
       </c>
       <c r="H737">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>41192.80105124996</v>
       </c>
       <c r="H738">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>40595.25885124996</v>
       </c>
       <c r="H739">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>39480.05585124996</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>39480.05585124996</v>
       </c>
       <c r="H741">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>39480.05585124996</v>
       </c>
       <c r="H742">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>39480.05585124996</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>38403.55945124995</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>37479.74135124996</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>38798.15295124995</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>38519.41355124996</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>39993.37898570995</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>39944.25811010996</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>39725.21851010996</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>39411.05211010996</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>39068.91101010996</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>38719.79651010995</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>34745.24931010995</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>35387.16376749996</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>35387.16376749996</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>36109.42166609996</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>34945.19886609996</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>34945.19886609996</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>35474.32777655996</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>35245.47077655995</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>34300.53227655996</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>34535.23447655996</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>34535.23447655996</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>31116.92079305996</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>30621.51197655996</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>31547.37199881996</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>31731.50719881996</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>34534.85177151996</v>
       </c>
       <c r="H805">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>34634.85177151996</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>34703.17267151995</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>34703.17267151995</v>
       </c>
       <c r="H808">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>34808.32097151996</v>
       </c>
       <c r="H809">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>37237.54397151995</v>
       </c>
       <c r="H810">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>36650.73897151995</v>
       </c>
       <c r="H811">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>36650.73897151995</v>
       </c>
       <c r="H812">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>36875.35197151995</v>
       </c>
       <c r="H813">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>36517.34657151995</v>
       </c>
       <c r="H814">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>37076.49977151995</v>
       </c>
       <c r="H815">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>37959.17047151995</v>
       </c>
       <c r="H816">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>37896.15187151995</v>
       </c>
       <c r="H817">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>37896.15187151995</v>
       </c>
       <c r="H818">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>37616.29467151995</v>
       </c>
       <c r="H819">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>37616.29467151995</v>
       </c>
       <c r="H820">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>37699.07307151995</v>
       </c>
       <c r="H821">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-15 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 BTG ohlcv.xlsx
@@ -1276,7 +1276,7 @@
         <v>1336.97502527</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>1334.64502527</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>1376.84602527</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>1889.80338451</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>2803.09778451</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>2842.69498451</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>2917.27698451</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>2867.14698451</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>2469.74688451</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>2494.74688451</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>2494.85978451</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>3237.963184510001</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>4706.913584509999</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>6421.230284509998</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>6383.367513139999</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>6383.367513139999</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>6356.260113139999</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>6586.425513139999</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>5782.711613139999</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>6437.464413139999</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>5443.945512839999</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>5568.901312839998</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>5448.611212839998</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>5137.754212839998</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>2683.653512839999</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>2283.571312839999</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>2283.571312839999</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>2814.886512839999</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>3243.123712839999</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>3459.450612839999</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>3437.083512839999</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>3420.691612839999</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>3420.691612839999</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>3297.012612839999</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>3301.957612839999</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>3526.397412839999</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>3309.717412839999</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>3948.951912839999</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>4378.455223759999</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>4180.536023759999</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>3221.869006049999</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>3801.579006049999</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>3682.144606049999</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>3446.600806049998</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>3446.680006049998</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>3533.503406049998</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>3403.347606049998</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>3403.347606049998</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>3395.337606049998</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>3517.370606049998</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>3163.867906049998</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>3138.097806049998</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>3138.097806049998</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>1474.943096739997</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>2083.129196739997</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>2078.129196739997</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>1812.112696739997</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>1902.112696739997</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>1963.794944929997</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>1948.794944929997</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>2000.560644929997</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>1920.233344929997</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>1921.233344929997</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>1808.233344929997</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>1645.027844929997</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>1742.219744929997</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>1191.235544929997</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>1191.876044929997</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>1480.459744929997</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>1480.459744929997</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>1598.504541309997</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>1598.504541309997</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>2774.657341309997</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>3024.770241309997</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>3024.770241309997</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>3024.900241309997</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>3149.535141309997</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>3179.872641309998</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>3179.872641309998</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>3179.872641309998</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>3179.872641309998</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>3179.872641309998</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>3300.742241309998</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>3489.919541309997</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>3547.066541309997</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>4126.435841309997</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>4126.435841309997</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>5246.575441309997</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>5772.360641309997</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>6152.524141309997</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>7022.968541309997</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>7022.968541309997</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>7675.526241309997</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>6604.965041309997</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>6604.965041309997</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>6604.965041309997</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>6604.965041309997</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>6598.144541309997</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>6777.825641309997</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>7251.961841309997</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>9609.469649899997</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>12509.17599728</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>13724.0159499</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>13152.1127499</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>11691.74584989999</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>10513.1634499</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>10410.2409499</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>11525.3039499</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>12107.5211499</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>12013.35591596</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>11911.11141595999</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>11911.11141595999</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>12005.94934968999</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>12003.40364968999</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>12086.29434968999</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>12086.29434968999</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>13330.90684968999</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>18214.05584640999</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>18214.05584640999</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>17843.98114640999</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>17843.98114640999</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>15869.72014640999</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>15985.08024640999</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>16032.21712180999</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>16017.60762180999</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>16017.60762180999</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>16017.60762180999</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>16088.93252180999</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>15988.93252180999</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>15614.41672180999</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>15311.36312180999</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>15320.65570772999</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>15098.50210772999</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>15561.35810772999</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>16642.87107917999</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>16643.28867917999</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>16643.28867917999</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>16543.28867917999</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>16483.81897917999</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>16628.17320772999</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>16481.33620772999</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>16282.29140772999</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>15777.86680772999</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>18181.26570772999</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>18003.95690772999</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>17948.73650772999</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>17931.51441272999</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>17780.46931272999</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>17623.03561272999</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>17623.03561272999</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>17588.44701272999</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>17368.11941272999</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>17368.11941272999</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>17414.51067091999</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>17411.46417091999</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>17596.04211272999</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>17521.35941272999</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>24150.04059090998</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>23812.44279090998</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>35771.40317208997</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>35482.32657208997</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>36434.90407208997</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>36434.90407208997</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>35608.53007208997</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>34974.62637208997</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>35225.95747208997</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>34770.25837208997</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>35067.15847997997</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>34876.50467997997</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>34242.65867997997</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>33994.47177997997</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>34986.45437997997</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>35447.08113799997</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>35292.73623799998</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>35183.08113799997</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>35183.08113799997</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>35333.09003799997</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>34985.15503799998</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>34985.15503799998</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>34840.10963799997</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>35023.32593799997</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>35023.32593799997</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>35023.32593799997</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>35320.18113799997</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>35320.18113799997</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>36042.89923799997</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>38765.29566067997</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>38181.80663939997</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>38633.13871811997</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>38067.40811811997</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>35136.58331811996</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>35587.33825409997</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>35587.33825409997</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>35315.80945409997</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>36069.48705409997</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>35022.14435409997</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>34124.24463281997</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>33470.84213281997</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>32696.59546539997</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>29591.53896539997</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>43087.75548502996</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>34703.17267151995</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>37237.54397151995</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>36650.73897151995</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>36650.73897151995</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>37076.49977151995</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>37959.17047151995</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>37896.15187151995</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>37896.15187151995</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>37616.29467151995</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>37616.29467151995</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>37699.07307151995</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
